--- a/auditoria_routers.xlsx
+++ b/auditoria_routers.xlsx
@@ -481,10 +481,8 @@
           <t>no ip http secure-server</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Cumple</t>
-        </is>
+      <c r="E2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -508,10 +506,8 @@
           <t xml:space="preserve"> transport input ssh</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Cumple</t>
-        </is>
+      <c r="E3" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -535,10 +531,8 @@
           <t xml:space="preserve">Loopback0                  10.2.2.2        YES NVRAM  up                    up      </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cumple</t>
-        </is>
+      <c r="E4" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +552,8 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -581,10 +573,8 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -604,10 +594,8 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -627,10 +615,8 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -654,10 +640,8 @@
           <t>no ip http secure-server</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cumple</t>
-        </is>
+      <c r="E9" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -681,10 +665,8 @@
           <t xml:space="preserve"> transport input ssh</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cumple</t>
-        </is>
+      <c r="E10" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -708,10 +690,8 @@
           <t xml:space="preserve">Loopback0                  10.1.1.1        YES NVRAM  up                    up      </t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cumple</t>
-        </is>
+      <c r="E11" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -731,10 +711,8 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -754,10 +732,8 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -777,10 +753,8 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -800,10 +774,8 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -827,10 +799,8 @@
           <t>no ip http secure-server</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cumple</t>
-        </is>
+      <c r="E16" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -854,10 +824,8 @@
           <t xml:space="preserve"> transport input ssh</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cumple</t>
-        </is>
+      <c r="E17" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -881,10 +849,8 @@
           <t xml:space="preserve">Loopback0                  10.3.3.3        YES NVRAM  up                    up      </t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cumple</t>
-        </is>
+      <c r="E18" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -904,10 +870,8 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -927,10 +891,8 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -950,10 +912,8 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -973,10 +933,8 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>No cumple</t>
-        </is>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
